--- a/extra/2024.xlsx
+++ b/extra/2024.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\delta 3.0\JS\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DE1DB-D562-4BC2-8B6C-7CACDD6555C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F9DCB-AEB4-4A8C-B01A-DE6D335D7383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1005" windowWidth="22980" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Total" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="5" r:id="rId2"/>
+    <sheet name="jan" sheetId="2" r:id="rId3"/>
+    <sheet name="fab" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$R$61</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,19 +32,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
   <si>
-    <t xml:space="preserve">This is my name </t>
+    <t>January</t>
   </si>
   <si>
-    <t>I am greet</t>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Beginner Loops</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pXZtRXpGNck?si=Tjzrbbq3wtdb3fGE</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>Beginner arrays, abject literals</t>
+  </si>
+  <si>
+    <t>Beginner This and try and catch , Beginner Function</t>
+  </si>
+  <si>
+    <t>Beginner methods, and revision</t>
+  </si>
+  <si>
+    <t>Revision of above topics</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QyfapMVw7ck?si=jv-zB8sqi4ZZMMhW</t>
+  </si>
+  <si>
+    <t>JS part 9, JS part 9 and 10</t>
+  </si>
+  <si>
+    <t>JS part 12 , mini project and JS part 11</t>
+  </si>
+  <si>
+    <t>JS part 12 and 13</t>
+  </si>
+  <si>
+    <t>Only English</t>
+  </si>
+  <si>
+    <t>spoken English course by dear sir</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WJnrveWw6uA&amp;list=PLhrnHPBcOqMmT-RvAVG_v0b_3kEPa7W4U</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>S. N.</t>
+  </si>
+  <si>
+    <t>No. of goals</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Efforts</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>Fabruary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +142,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,15 +205,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,6 +321,2191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BASE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$E$2:$E$32</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-717F-4956-996E-E1CCC91CBC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Productivity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$I$2:$I$32</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-717F-4956-996E-E1CCC91CBC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="399238000"/>
+        <c:axId val="399232960"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>daliy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$H$2:$H$32</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-717F-4956-996E-E1CCC91CBC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="399238000"/>
+        <c:axId val="399232960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="399238000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399232960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399232960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399238000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3233814523184596E-2"/>
+          <c:y val="5.7835739282589678E-2"/>
+          <c:w val="0.87232174103237092"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>main</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$E$33:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>3.4482758620689655E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8965517241379309E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10344827586206896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17241379310344826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20689655172413793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24137931034482757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27586206896551724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31034482758620685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34482758620689652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37931034482758619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44827586206896547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48275862068965514</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51724137931034475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6206896551724137</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65517241379310331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68965517241379304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72413793103448265</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75862068965517238</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.82758620689655171</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86206896551724133</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89655172413793094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93103448275862066</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96551724137931028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A0B-4DC1-B14C-97D078587AF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>productivty</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$I$33:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56330749354005172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A0B-4DC1-B14C-97D078587AF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>daliy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$H$33:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A0B-4DC1-B14C-97D078587AF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="629176448"/>
+        <c:axId val="629178968"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="629176448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629178968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="629178968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629176448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="327">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="283">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974A8995-37F5-E18D-7CC3-C19AD2B1C194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359F8F0B-4DAD-5D53-FB4D-7E8077DCB5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,22 +2771,2342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G7:H15"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <f>(100/31)*D2/100</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11">
+        <f>G2/F2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>45293</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" ref="E3:E31" si="0">(100/31)*D3/100</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H32" si="1">G3/F3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J3" s="8">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8">
+        <f>AVERAGE(J3:J13)</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>45294</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
+        <v>9.677419354838708E-2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J4" s="8">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>45295</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J5" s="8">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>45296</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="F6" s="10">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J6" s="8">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8">
+        <v>10</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>45297</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.19354838709677416</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="8">
+        <v>9</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>45298</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.22580645161290319</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J8" s="8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L8" s="8">
+        <v>10</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>45299</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J9" s="8">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L9" s="8">
+        <v>10</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.29032258064516125</v>
+      </c>
+      <c r="F10" s="10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J10" s="8">
+        <v>10</v>
+      </c>
+      <c r="K10" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>45301</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J11" s="8">
+        <v>10</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>45302</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="F12" s="10">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J12" s="8">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>45303</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.38709677419354832</v>
+      </c>
+      <c r="F13" s="10">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>45304</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.41935483870967738</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>45305</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>14</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.45161290322580638</v>
+      </c>
+      <c r="F15" s="10">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>45306</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>0.48387096774193544</v>
+      </c>
+      <c r="F16" s="10">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>45307</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>16</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="F17" s="10">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>45308</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>45309</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9">
+        <v>18</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.58064516129032251</v>
+      </c>
+      <c r="F19" s="10">
+        <v>10</v>
+      </c>
+      <c r="G19" s="10">
+        <v>5</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>45310</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>19</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="F20" s="10">
+        <v>10</v>
+      </c>
+      <c r="G20" s="10">
+        <v>5</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>45311</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>20</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="F21" s="10">
+        <v>10</v>
+      </c>
+      <c r="G21" s="10">
+        <v>8</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>45312</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>21</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="F22" s="10">
+        <v>17</v>
+      </c>
+      <c r="G22" s="10">
+        <v>13</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I22" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>45313</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>22</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="F23" s="10">
+        <v>17</v>
+      </c>
+      <c r="G23" s="10">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="I23" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>45314</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>23</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="0"/>
+        <v>0.74193548387096764</v>
+      </c>
+      <c r="F24" s="10">
+        <v>17</v>
+      </c>
+      <c r="G24" s="10">
+        <v>13</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I24" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>45315</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>24</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="0"/>
+        <v>0.77419354838709664</v>
+      </c>
+      <c r="F25" s="10">
+        <v>17</v>
+      </c>
+      <c r="G25" s="10">
+        <v>13</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I25" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>45316</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>25</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="F26" s="10">
+        <v>17</v>
+      </c>
+      <c r="G26" s="10">
+        <v>13</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I26" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>45317</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9">
+        <v>26</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.83870967741935476</v>
+      </c>
+      <c r="F27" s="10">
+        <v>17</v>
+      </c>
+      <c r="G27" s="10">
+        <v>7</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="I27" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>45318</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9">
+        <v>27</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="0"/>
+        <v>0.87096774193548387</v>
+      </c>
+      <c r="F28" s="10">
+        <v>17</v>
+      </c>
+      <c r="G28" s="10">
+        <v>7</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="I28" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>45319</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9">
+        <v>28</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.90322580645161277</v>
+      </c>
+      <c r="F29" s="10">
+        <v>17</v>
+      </c>
+      <c r="G29" s="10">
+        <v>7</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="I29" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>45320</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>29</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="0"/>
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="F30" s="10">
+        <v>17</v>
+      </c>
+      <c r="G30" s="10">
+        <v>7</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="I30" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>45321</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9">
+        <v>30</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="0"/>
+        <v>0.96774193548387089</v>
+      </c>
+      <c r="F31" s="10">
+        <v>17</v>
+      </c>
+      <c r="G31" s="10">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="I31" s="16">
+        <f>SUM($G$2:$G$32)/SUM($F$2:$F$32)</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>45322</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>31</v>
+      </c>
+      <c r="E32" s="17">
+        <f>(100/31)*D32/100</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>17</v>
+      </c>
+      <c r="G32" s="10">
+        <v>9</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="I32" s="16">
+        <f>IFERROR(SUM($G$2:$G$32)/SUM($F$2:$F$32), "")</f>
+        <v>0.56330749354005172</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>45323</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20">
+        <v>32</v>
+      </c>
+      <c r="E33" s="25">
+        <f>(100/29)*Sheet4!A1/100</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="F33" s="22">
+        <v>10</v>
+      </c>
+      <c r="G33" s="22">
+        <v>5</v>
+      </c>
+      <c r="H33" s="23">
+        <f>IFERROR(G33/F33,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" ref="I33:I61" si="2">IFERROR(SUM($G$2:$G$32)/SUM($F$2:$F$32), "")</f>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>45324</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>33</v>
+      </c>
+      <c r="E34" s="17">
+        <f>(100/29)*Sheet4!A2/100</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10</v>
+      </c>
+      <c r="G34" s="10">
+        <v>5</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" ref="H34:H38" si="3">IFERROR(G34/F34,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>45325</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9">
+        <v>34</v>
+      </c>
+      <c r="E35" s="17">
+        <f>(100/29)*Sheet4!A3/100</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="F35" s="10">
+        <v>10</v>
+      </c>
+      <c r="G35" s="10">
+        <v>5</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>45326</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9">
+        <v>35</v>
+      </c>
+      <c r="E36" s="17">
+        <f>(100/29)*Sheet4!A4/100</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="F36" s="10">
+        <v>10</v>
+      </c>
+      <c r="G36" s="10">
+        <v>5</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>45327</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>36</v>
+      </c>
+      <c r="E37" s="17">
+        <f>(100/29)*Sheet4!A5/100</f>
+        <v>0.17241379310344826</v>
+      </c>
+      <c r="F37" s="10">
+        <v>10</v>
+      </c>
+      <c r="G37" s="10">
+        <v>5</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>45328</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9">
+        <v>37</v>
+      </c>
+      <c r="E38" s="17">
+        <f>(100/29)*Sheet4!A6/100</f>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="F38" s="10">
+        <v>10</v>
+      </c>
+      <c r="G38" s="10">
+        <v>5</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>45329</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="9">
+        <v>38</v>
+      </c>
+      <c r="E39" s="17">
+        <f>(100/29)*Sheet4!A7/100</f>
+        <v>0.24137931034482757</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11" t="str">
+        <f>IFERROR(G39/F39,"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>45330</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9">
+        <v>39</v>
+      </c>
+      <c r="E40" s="17">
+        <f>(100/29)*Sheet4!A8/100</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11" t="str">
+        <f t="shared" ref="H40:H60" si="4">IFERROR(G40/F40,"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>45331</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9">
+        <v>40</v>
+      </c>
+      <c r="E41" s="17">
+        <f>(100/29)*Sheet4!A9/100</f>
+        <v>0.31034482758620685</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>45332</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9">
+        <v>41</v>
+      </c>
+      <c r="E42" s="17">
+        <f>(100/29)*Sheet4!A10/100</f>
+        <v>0.34482758620689652</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>45333</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9">
+        <v>42</v>
+      </c>
+      <c r="E43" s="17">
+        <f>(100/29)*Sheet4!A11/100</f>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>45334</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>43</v>
+      </c>
+      <c r="E44" s="17">
+        <f>(100/29)*Sheet4!A12/100</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>45335</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="9">
+        <v>44</v>
+      </c>
+      <c r="E45" s="17">
+        <f>(100/29)*Sheet4!A13/100</f>
+        <v>0.44827586206896547</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45336</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>45</v>
+      </c>
+      <c r="E46" s="17">
+        <f>(100/29)*Sheet4!A14/100</f>
+        <v>0.48275862068965514</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>45337</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9">
+        <v>46</v>
+      </c>
+      <c r="E47" s="17">
+        <f>(100/29)*Sheet4!A15/100</f>
+        <v>0.51724137931034475</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I47" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>45338</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="9">
+        <v>47</v>
+      </c>
+      <c r="E48" s="17">
+        <f>(100/29)*Sheet4!A16/100</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>45339</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="9">
+        <v>48</v>
+      </c>
+      <c r="E49" s="17">
+        <f>(100/29)*Sheet4!A17/100</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>45340</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="9">
+        <v>49</v>
+      </c>
+      <c r="E50" s="17">
+        <f>(100/29)*Sheet4!A18/100</f>
+        <v>0.6206896551724137</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I50" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>45341</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>50</v>
+      </c>
+      <c r="E51" s="17">
+        <f>(100/29)*Sheet4!A19/100</f>
+        <v>0.65517241379310331</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I51" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>45342</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="9">
+        <v>51</v>
+      </c>
+      <c r="E52" s="17">
+        <f>(100/29)*Sheet4!A20/100</f>
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>45343</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="9">
+        <v>52</v>
+      </c>
+      <c r="E53" s="17">
+        <f>(100/29)*Sheet4!A21/100</f>
+        <v>0.72413793103448265</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>45344</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="9">
+        <v>53</v>
+      </c>
+      <c r="E54" s="17">
+        <f>(100/29)*Sheet4!A22/100</f>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>45345</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="9">
+        <v>54</v>
+      </c>
+      <c r="E55" s="17">
+        <f>(100/29)*Sheet4!A23/100</f>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I55" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>45346</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9">
+        <v>55</v>
+      </c>
+      <c r="E56" s="17">
+        <f>(100/29)*Sheet4!A24/100</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>45347</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="9">
+        <v>56</v>
+      </c>
+      <c r="E57" s="17">
+        <f>(100/29)*Sheet4!A25/100</f>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I57" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>45348</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9">
+        <v>57</v>
+      </c>
+      <c r="E58" s="17">
+        <f>(100/29)*Sheet4!A26/100</f>
+        <v>0.89655172413793094</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I58" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>45349</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="9">
+        <v>58</v>
+      </c>
+      <c r="E59" s="17">
+        <f>(100/29)*Sheet4!A27/100</f>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I59" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>45350</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="9">
+        <v>59</v>
+      </c>
+      <c r="E60" s="17">
+        <f>(100/29)*Sheet4!A28/100</f>
+        <v>0.96551724137931028</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>45351</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="9">
+        <v>60</v>
+      </c>
+      <c r="E61" s="17">
+        <f>(100/29)*Sheet4!A29/100</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11" t="str">
+        <f>IFERROR(G61/F61,"")</f>
+        <v/>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56330749354005172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R61" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Fabruary"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L21" r:id="rId1" xr:uid="{BE2A66DA-D69A-4A2B-9043-E077375FC6B7}"/>
+    <hyperlink ref="L22" r:id="rId2" xr:uid="{614FD888-DCAC-4F42-B913-5EE4183D6514}"/>
+    <hyperlink ref="L23" r:id="rId3" xr:uid="{A5173A76-647E-4DC4-B87A-0004F8BBCA3D}"/>
+    <hyperlink ref="L24" r:id="rId4" xr:uid="{C7110641-4CA7-4ECE-8781-32F268B9A721}"/>
+    <hyperlink ref="L25" r:id="rId5" xr:uid="{D6BA2050-A022-40E9-ADC7-D625676CDC0E}"/>
+    <hyperlink ref="L26" r:id="rId6" xr:uid="{33CC2887-AA2B-4FCE-970D-5B11BBB1E543}"/>
+    <hyperlink ref="L27" r:id="rId7" xr:uid="{9EBBC9D2-C460-4DD3-862E-0366181832D6}"/>
+    <hyperlink ref="L28" r:id="rId8" xr:uid="{EB225A4F-C5A8-4CA9-A7CE-D3FE4D917D4B}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{CBBC5977-F3BB-48AA-A113-B6B6520F0CA8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07290DC0-959F-4E42-B1CF-255B217B1519}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E38382-1C0E-4704-ABC0-E1ED9B0A56FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B54B749-7D34-45A9-9D69-358F619F259F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978CD1B7-4CEE-4B68-92A5-8E2F22E0D428}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
